--- a/data/pre_policies/max_costs.xlsx
+++ b/data/pre_policies/max_costs.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1707274566.616479</v>
+        <v>2168836872.129042</v>
       </c>
       <c r="C2">
-        <v>18819085544.22161</v>
+        <v>19029010167.40925</v>
       </c>
     </row>
   </sheetData>
